--- a/tests/test_data/Example2_skiprows.xlsx
+++ b/tests/test_data/Example2_skiprows.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Box Sync\Projects\Python_Col_Info\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E49B987-40CB-4DDC-A5F7-2C892E67D45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDBF6E2-F310-4B51-8AA2-DD3B347F27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3135" windowWidth="28800" windowHeight="11587" xr2:uid="{D791E7BB-7986-4084-9B03-31A22112046A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -443,9 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016B0039-CBCC-4EA1-95CA-2A3C901C2C96}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
